--- a/Code/Results/Cases/Case_2_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008285929175086</v>
+        <v>1.031539701158009</v>
       </c>
       <c r="D2">
-        <v>1.027003915748183</v>
+        <v>1.040615143088023</v>
       </c>
       <c r="E2">
-        <v>1.023830159545408</v>
+        <v>1.04951739431286</v>
       </c>
       <c r="F2">
-        <v>1.03161072914169</v>
+        <v>1.054037019861213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045497967712379</v>
+        <v>1.036889344208608</v>
       </c>
       <c r="J2">
-        <v>1.030221602766077</v>
+        <v>1.036674867731149</v>
       </c>
       <c r="K2">
-        <v>1.038099437847447</v>
+        <v>1.043396989555646</v>
       </c>
       <c r="L2">
-        <v>1.034967192641527</v>
+        <v>1.052274231972689</v>
       </c>
       <c r="M2">
-        <v>1.042646565110953</v>
+        <v>1.056781335913599</v>
       </c>
       <c r="N2">
-        <v>1.014000223965795</v>
+        <v>1.016222365518382</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011742978631219</v>
+        <v>1.032276224986706</v>
       </c>
       <c r="D3">
-        <v>1.029580227898602</v>
+        <v>1.041193382845385</v>
       </c>
       <c r="E3">
-        <v>1.027330422132636</v>
+        <v>1.050351816297958</v>
       </c>
       <c r="F3">
-        <v>1.034978587165601</v>
+        <v>1.054827055175178</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046345289016261</v>
+        <v>1.037027875723292</v>
       </c>
       <c r="J3">
-        <v>1.031918557917102</v>
+        <v>1.037054393523527</v>
       </c>
       <c r="K3">
-        <v>1.039848112654498</v>
+        <v>1.043786299837397</v>
       </c>
       <c r="L3">
-        <v>1.037625151395099</v>
+        <v>1.052920858718145</v>
       </c>
       <c r="M3">
-        <v>1.045182648359718</v>
+        <v>1.057384594018029</v>
       </c>
       <c r="N3">
-        <v>1.014566968416069</v>
+        <v>1.016348658099686</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013941562373357</v>
+        <v>1.032753464619126</v>
       </c>
       <c r="D4">
-        <v>1.031221853638232</v>
+        <v>1.041568156206712</v>
       </c>
       <c r="E4">
-        <v>1.02956488453652</v>
+        <v>1.050893256486715</v>
       </c>
       <c r="F4">
-        <v>1.037126924158858</v>
+        <v>1.055339496222175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046876232635433</v>
+        <v>1.037116649484956</v>
       </c>
       <c r="J4">
-        <v>1.032995242041598</v>
+        <v>1.037299929080495</v>
       </c>
       <c r="K4">
-        <v>1.040957514034386</v>
+        <v>1.044038120685944</v>
       </c>
       <c r="L4">
-        <v>1.039319116061336</v>
+        <v>1.053340132074985</v>
       </c>
       <c r="M4">
-        <v>1.046796994356437</v>
+        <v>1.057775517428688</v>
       </c>
       <c r="N4">
-        <v>1.014926511681</v>
+        <v>1.016430344813956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014856914917344</v>
+        <v>1.032954252080042</v>
       </c>
       <c r="D5">
-        <v>1.031906050578615</v>
+        <v>1.041725855881217</v>
       </c>
       <c r="E5">
-        <v>1.030497177167096</v>
+        <v>1.051121238082271</v>
       </c>
       <c r="F5">
-        <v>1.038022892287166</v>
+        <v>1.055555220002444</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047095354240088</v>
+        <v>1.037153762062105</v>
       </c>
       <c r="J5">
-        <v>1.033442877167354</v>
+        <v>1.037403140642303</v>
       </c>
       <c r="K5">
-        <v>1.041418723251928</v>
+        <v>1.044143963499998</v>
       </c>
       <c r="L5">
-        <v>1.040025217540918</v>
+        <v>1.053516599303413</v>
       </c>
       <c r="M5">
-        <v>1.047469436533678</v>
+        <v>1.057939997506415</v>
       </c>
       <c r="N5">
-        <v>1.015075980970283</v>
+        <v>1.01646467754376</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015010089976865</v>
+        <v>1.032987974264524</v>
       </c>
       <c r="D6">
-        <v>1.032020585851019</v>
+        <v>1.041752342794231</v>
       </c>
       <c r="E6">
-        <v>1.030653304336612</v>
+        <v>1.051159538251231</v>
       </c>
       <c r="F6">
-        <v>1.038172913259562</v>
+        <v>1.055591458125544</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047131907800718</v>
+        <v>1.037159981213674</v>
       </c>
       <c r="J6">
-        <v>1.033517746839874</v>
+        <v>1.03742046960074</v>
       </c>
       <c r="K6">
-        <v>1.041495861478066</v>
+        <v>1.044161733604676</v>
       </c>
       <c r="L6">
-        <v>1.040143425432332</v>
+        <v>1.053546240879403</v>
       </c>
       <c r="M6">
-        <v>1.047581981695682</v>
+        <v>1.057967622350726</v>
       </c>
       <c r="N6">
-        <v>1.015100979862287</v>
+        <v>1.016470441656341</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013953828129323</v>
+        <v>1.032756146940803</v>
       </c>
       <c r="D7">
-        <v>1.031231019074419</v>
+        <v>1.041570262830353</v>
       </c>
       <c r="E7">
-        <v>1.029577369400794</v>
+        <v>1.050896301375567</v>
       </c>
       <c r="F7">
-        <v>1.037138924126858</v>
+        <v>1.055342377583127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046879176527981</v>
+        <v>1.037117146202898</v>
       </c>
       <c r="J7">
-        <v>1.033001242877875</v>
+        <v>1.037301308245581</v>
       </c>
       <c r="K7">
-        <v>1.040963696957729</v>
+        <v>1.044039535053618</v>
       </c>
       <c r="L7">
-        <v>1.039328574550451</v>
+        <v>1.053342489236626</v>
       </c>
       <c r="M7">
-        <v>1.046806003833792</v>
+        <v>1.057777714687898</v>
       </c>
       <c r="N7">
-        <v>1.014928515462172</v>
+        <v>1.016430803603015</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009462351847357</v>
+        <v>1.03178847511018</v>
       </c>
       <c r="D8">
-        <v>1.027879943878872</v>
+        <v>1.040810433713285</v>
       </c>
       <c r="E8">
-        <v>1.025019523109906</v>
+        <v>1.04979907647591</v>
       </c>
       <c r="F8">
-        <v>1.032755433528319</v>
+        <v>1.054303758888585</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045787950168044</v>
+        <v>1.0369363403249</v>
       </c>
       <c r="J8">
-        <v>1.030799587256507</v>
+        <v>1.03680313837947</v>
       </c>
       <c r="K8">
-        <v>1.03869505567169</v>
+        <v>1.043528576373884</v>
       </c>
       <c r="L8">
-        <v>1.035870927125797</v>
+        <v>1.052492582815253</v>
       </c>
       <c r="M8">
-        <v>1.043509264073552</v>
+        <v>1.056985089659043</v>
       </c>
       <c r="N8">
-        <v>1.014193266225696</v>
+        <v>1.016265053251999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001242250206478</v>
+        <v>1.030088451109291</v>
       </c>
       <c r="D9">
-        <v>1.021773537261712</v>
+        <v>1.03947630259239</v>
       </c>
       <c r="E9">
-        <v>1.016744952750316</v>
+        <v>1.0478773123793</v>
       </c>
       <c r="F9">
-        <v>1.024785084831431</v>
+        <v>1.052483138266661</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043729441611044</v>
+        <v>1.036611142012435</v>
       </c>
       <c r="J9">
-        <v>1.026751217551594</v>
+        <v>1.035925027096857</v>
       </c>
       <c r="K9">
-        <v>1.034522962260861</v>
+        <v>1.042627581770083</v>
       </c>
       <c r="L9">
-        <v>1.029572073516681</v>
+        <v>1.051001625490694</v>
       </c>
       <c r="M9">
-        <v>1.037488444429783</v>
+        <v>1.055592867128214</v>
       </c>
       <c r="N9">
-        <v>1.012841006549171</v>
+        <v>1.015972747196394</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.995539533618143</v>
+        <v>1.028958673098743</v>
       </c>
       <c r="D10">
-        <v>1.017557438675296</v>
+        <v>1.038590214852859</v>
       </c>
       <c r="E10">
-        <v>1.011050703914407</v>
+        <v>1.046604123254159</v>
       </c>
       <c r="F10">
-        <v>1.019292253883864</v>
+        <v>1.051275948597394</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042261656206549</v>
+        <v>1.036389953015349</v>
       </c>
       <c r="J10">
-        <v>1.023931247424652</v>
+        <v>1.035339513689774</v>
       </c>
       <c r="K10">
-        <v>1.031616762635696</v>
+        <v>1.04202658435037</v>
       </c>
       <c r="L10">
-        <v>1.025223260409731</v>
+        <v>1.050012257516457</v>
       </c>
       <c r="M10">
-        <v>1.033321703522361</v>
+        <v>1.054667841394622</v>
       </c>
       <c r="N10">
-        <v>1.01189894839547</v>
+        <v>1.015777747347153</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9930133135600122</v>
+        <v>1.028470338658366</v>
       </c>
       <c r="D11">
-        <v>1.015695093297235</v>
+        <v>1.038207344243892</v>
       </c>
       <c r="E11">
-        <v>1.008539446236035</v>
+        <v>1.04605474025041</v>
       </c>
       <c r="F11">
-        <v>1.016868027809347</v>
+        <v>1.050754805296731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041602440724929</v>
+        <v>1.036293143816779</v>
       </c>
       <c r="J11">
-        <v>1.022679663287455</v>
+        <v>1.035085971177722</v>
       </c>
       <c r="K11">
-        <v>1.030326971104812</v>
+        <v>1.041766284049365</v>
       </c>
       <c r="L11">
-        <v>1.023302098124957</v>
+        <v>1.049584965107528</v>
       </c>
       <c r="M11">
-        <v>1.031478697731362</v>
+        <v>1.054268058569425</v>
       </c>
       <c r="N11">
-        <v>1.011480826702486</v>
+        <v>1.015693285426056</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9920660460288415</v>
+        <v>1.028289081762494</v>
       </c>
       <c r="D12">
-        <v>1.014997607867549</v>
+        <v>1.038065252940582</v>
       </c>
       <c r="E12">
-        <v>1.007599495724696</v>
+        <v>1.045850965097159</v>
       </c>
       <c r="F12">
-        <v>1.015960390168182</v>
+        <v>1.050561468790885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04135393353983</v>
+        <v>1.036257030135143</v>
       </c>
       <c r="J12">
-        <v>1.022210022410583</v>
+        <v>1.034991793822802</v>
       </c>
       <c r="K12">
-        <v>1.029843009561708</v>
+        <v>1.041669588665438</v>
       </c>
       <c r="L12">
-        <v>1.022582535421674</v>
+        <v>1.049426418387104</v>
       </c>
       <c r="M12">
-        <v>1.030788071835253</v>
+        <v>1.054119677387066</v>
       </c>
       <c r="N12">
-        <v>1.011323932081166</v>
+        <v>1.015661909116881</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9922696477546206</v>
+        <v>1.028327955964581</v>
       </c>
       <c r="D13">
-        <v>1.015147483469546</v>
+        <v>1.038095726369048</v>
       </c>
       <c r="E13">
-        <v>1.007801447263417</v>
+        <v>1.045894662392912</v>
       </c>
       <c r="F13">
-        <v>1.0161554109284</v>
+        <v>1.05060292926145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041407405647911</v>
+        <v>1.036264783618938</v>
       </c>
       <c r="J13">
-        <v>1.022310979465872</v>
+        <v>1.035011995180883</v>
       </c>
       <c r="K13">
-        <v>1.029947044241556</v>
+        <v>1.041690330504611</v>
       </c>
       <c r="L13">
-        <v>1.022737157535509</v>
+        <v>1.049460419532498</v>
       </c>
       <c r="M13">
-        <v>1.030936491019594</v>
+        <v>1.054151500377041</v>
       </c>
       <c r="N13">
-        <v>1.011357659135993</v>
+        <v>1.015668639587618</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9929351962257715</v>
+        <v>1.028455353197108</v>
       </c>
       <c r="D14">
-        <v>1.015637557002512</v>
+        <v>1.038195596393543</v>
       </c>
       <c r="E14">
-        <v>1.008461897463611</v>
+        <v>1.04603789020055</v>
       </c>
       <c r="F14">
-        <v>1.016793150247936</v>
+        <v>1.050738819145643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04158197394961</v>
+        <v>1.036290161794687</v>
       </c>
       <c r="J14">
-        <v>1.022640940424075</v>
+        <v>1.035078186448203</v>
       </c>
       <c r="K14">
-        <v>1.030287067105238</v>
+        <v>1.041758291339098</v>
       </c>
       <c r="L14">
-        <v>1.023242741770813</v>
+        <v>1.049571856133792</v>
       </c>
       <c r="M14">
-        <v>1.031421735170092</v>
+        <v>1.054255790958288</v>
       </c>
       <c r="N14">
-        <v>1.01146789040342</v>
+        <v>1.015690691917011</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9933440697090965</v>
+        <v>1.028533864422585</v>
       </c>
       <c r="D15">
-        <v>1.015938742188217</v>
+        <v>1.038257146088204</v>
       </c>
       <c r="E15">
-        <v>1.008867864798486</v>
+        <v>1.046126176095819</v>
       </c>
       <c r="F15">
-        <v>1.017185123133135</v>
+        <v>1.050822577168447</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041689045403791</v>
+        <v>1.036305777684609</v>
       </c>
       <c r="J15">
-        <v>1.022843606284356</v>
+        <v>1.035118969062319</v>
       </c>
       <c r="K15">
-        <v>1.030495915438558</v>
+        <v>1.041800163199873</v>
       </c>
       <c r="L15">
-        <v>1.023553452292336</v>
+        <v>1.04964053831283</v>
       </c>
       <c r="M15">
-        <v>1.031719901297548</v>
+        <v>1.054320063248907</v>
       </c>
       <c r="N15">
-        <v>1.011535595799714</v>
+        <v>1.015704278649676</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9957059606540931</v>
+        <v>1.028991100683898</v>
       </c>
       <c r="D16">
-        <v>1.017680244782803</v>
+        <v>1.038615641977566</v>
       </c>
       <c r="E16">
-        <v>1.011216381150731</v>
+        <v>1.046640624561265</v>
       </c>
       <c r="F16">
-        <v>1.019452152350075</v>
+        <v>1.051310568598365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042304900100594</v>
+        <v>1.036396356224688</v>
       </c>
       <c r="J16">
-        <v>1.024013654335982</v>
+        <v>1.0353563403456</v>
       </c>
       <c r="K16">
-        <v>1.031701687083638</v>
+        <v>1.042043858387449</v>
       </c>
       <c r="L16">
-        <v>1.025349939260329</v>
+        <v>1.05004063906219</v>
       </c>
       <c r="M16">
-        <v>1.033443181730565</v>
+        <v>1.054694389823408</v>
       </c>
       <c r="N16">
-        <v>1.011926478340778</v>
+        <v>1.015783352305364</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9971720236911616</v>
+        <v>1.029278146426498</v>
       </c>
       <c r="D17">
-        <v>1.018762662450862</v>
+        <v>1.038840735586996</v>
       </c>
       <c r="E17">
-        <v>1.012677121453968</v>
+        <v>1.046963839129033</v>
       </c>
       <c r="F17">
-        <v>1.0208617377811</v>
+        <v>1.051617096755615</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042684813442429</v>
+        <v>1.036452897739311</v>
       </c>
       <c r="J17">
-        <v>1.024739312315947</v>
+        <v>1.035505234980642</v>
       </c>
       <c r="K17">
-        <v>1.032449522017281</v>
+        <v>1.042196705687958</v>
       </c>
       <c r="L17">
-        <v>1.026466466841851</v>
+        <v>1.050291910313422</v>
       </c>
       <c r="M17">
-        <v>1.034513612077468</v>
+        <v>1.05492939962934</v>
       </c>
       <c r="N17">
-        <v>1.012168900419328</v>
+        <v>1.015832946571988</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9980216886504087</v>
+        <v>1.029445658859049</v>
       </c>
       <c r="D18">
-        <v>1.019390487301341</v>
+        <v>1.03897210701838</v>
       </c>
       <c r="E18">
-        <v>1.013524767198305</v>
+        <v>1.047152549460981</v>
       </c>
       <c r="F18">
-        <v>1.021679527121127</v>
+        <v>1.051796041525309</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042904134548524</v>
+        <v>1.036485777737819</v>
       </c>
       <c r="J18">
-        <v>1.025159643104316</v>
+        <v>1.035592081518768</v>
       </c>
       <c r="K18">
-        <v>1.032882704219414</v>
+        <v>1.042285852618417</v>
       </c>
       <c r="L18">
-        <v>1.027114059013277</v>
+        <v>1.050438579600119</v>
       </c>
       <c r="M18">
-        <v>1.035134250124042</v>
+        <v>1.055066550021248</v>
       </c>
       <c r="N18">
-        <v>1.012309320238556</v>
+        <v>1.015861871557515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9983104863586176</v>
+        <v>1.029502790372565</v>
       </c>
       <c r="D19">
-        <v>1.019603966529613</v>
+        <v>1.03901691447377</v>
       </c>
       <c r="E19">
-        <v>1.013813058697437</v>
+        <v>1.047216926074463</v>
       </c>
       <c r="F19">
-        <v>1.021957634810854</v>
+        <v>1.051857082793893</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042978534037923</v>
+        <v>1.036496972032295</v>
       </c>
       <c r="J19">
-        <v>1.025302472288233</v>
+        <v>1.035621693702839</v>
       </c>
       <c r="K19">
-        <v>1.033029901096863</v>
+        <v>1.04231624830374</v>
       </c>
       <c r="L19">
-        <v>1.027334257407328</v>
+        <v>1.050488608131583</v>
       </c>
       <c r="M19">
-        <v>1.035345246345857</v>
+        <v>1.05511332711106</v>
       </c>
       <c r="N19">
-        <v>1.01235703494452</v>
+        <v>1.01587173378985</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9970152968467073</v>
+        <v>1.029247340482796</v>
       </c>
       <c r="D20">
-        <v>1.018646895974875</v>
+        <v>1.03881657707637</v>
       </c>
       <c r="E20">
-        <v>1.012520852979768</v>
+        <v>1.046929142139706</v>
       </c>
       <c r="F20">
-        <v>1.02071095957544</v>
+        <v>1.051584193438387</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042644288390499</v>
+        <v>1.036446841678025</v>
       </c>
       <c r="J20">
-        <v>1.024661760623171</v>
+        <v>1.035489260108264</v>
       </c>
       <c r="K20">
-        <v>1.032369599625774</v>
+        <v>1.042180307261986</v>
       </c>
       <c r="L20">
-        <v>1.026347054169105</v>
+        <v>1.050264940203403</v>
       </c>
       <c r="M20">
-        <v>1.034399152008431</v>
+        <v>1.054904177721777</v>
       </c>
       <c r="N20">
-        <v>1.012142992652394</v>
+        <v>1.015827625832883</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9927394579889637</v>
+        <v>1.028417834220238</v>
       </c>
       <c r="D21">
-        <v>1.015493402378</v>
+        <v>1.03816618372448</v>
       </c>
       <c r="E21">
-        <v>1.008267611452307</v>
+        <v>1.045995705153239</v>
       </c>
       <c r="F21">
-        <v>1.016605552318526</v>
+        <v>1.050698796337054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041530669319122</v>
+        <v>1.036282692811614</v>
       </c>
       <c r="J21">
-        <v>1.022543907522213</v>
+        <v>1.035058694769503</v>
       </c>
       <c r="K21">
-        <v>1.030187074760577</v>
+        <v>1.041738278783893</v>
       </c>
       <c r="L21">
-        <v>1.023094026206703</v>
+        <v>1.049539036160064</v>
       </c>
       <c r="M21">
-        <v>1.031279011779065</v>
+        <v>1.054225076765472</v>
       </c>
       <c r="N21">
-        <v>1.011435474248836</v>
+        <v>1.015684198145481</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9899992815198443</v>
+        <v>1.027897056915362</v>
       </c>
       <c r="D22">
-        <v>1.013477428786784</v>
+        <v>1.037757973381043</v>
       </c>
       <c r="E22">
-        <v>1.005551855843478</v>
+        <v>1.045410496138455</v>
       </c>
       <c r="F22">
-        <v>1.013982668752421</v>
+        <v>1.050143497794272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040809354009096</v>
+        <v>1.036178592762639</v>
       </c>
       <c r="J22">
-        <v>1.02118477941217</v>
+        <v>1.034787979727302</v>
       </c>
       <c r="K22">
-        <v>1.028786541200278</v>
+        <v>1.04146031083541</v>
       </c>
       <c r="L22">
-        <v>1.021014125905012</v>
+        <v>1.049083608481197</v>
       </c>
       <c r="M22">
-        <v>1.029282123880773</v>
+        <v>1.053798770867744</v>
       </c>
       <c r="N22">
-        <v>1.010981427475835</v>
+        <v>1.015594000078662</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9914569375370899</v>
+        <v>1.028173057516819</v>
       </c>
       <c r="D23">
-        <v>1.014549357647941</v>
+        <v>1.03797430470112</v>
       </c>
       <c r="E23">
-        <v>1.006995575863336</v>
+        <v>1.045720566525004</v>
       </c>
       <c r="F23">
-        <v>1.015377158348493</v>
+        <v>1.050437739945609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041193772387284</v>
+        <v>1.036233862577888</v>
       </c>
       <c r="J23">
-        <v>1.021907946564858</v>
+        <v>1.034931490594833</v>
       </c>
       <c r="K23">
-        <v>1.029531727975258</v>
+        <v>1.041607670894565</v>
       </c>
       <c r="L23">
-        <v>1.022120080494952</v>
+        <v>1.049324946076896</v>
       </c>
       <c r="M23">
-        <v>1.030344120239576</v>
+        <v>1.054024699386208</v>
       </c>
       <c r="N23">
-        <v>1.011223016755956</v>
+        <v>1.015641817461363</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9970861318232458</v>
+        <v>1.029261260104976</v>
       </c>
       <c r="D24">
-        <v>1.018699216759964</v>
+        <v>1.038827493026275</v>
       </c>
       <c r="E24">
-        <v>1.012591477488938</v>
+        <v>1.046944819645152</v>
       </c>
       <c r="F24">
-        <v>1.020779103327089</v>
+        <v>1.051599060561539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04266260694386</v>
+        <v>1.036449578459629</v>
       </c>
       <c r="J24">
-        <v>1.024696811948135</v>
+        <v>1.035496478469297</v>
       </c>
       <c r="K24">
-        <v>1.032405722427294</v>
+        <v>1.042187717024522</v>
       </c>
       <c r="L24">
-        <v>1.026401022908367</v>
+        <v>1.050277126504795</v>
       </c>
       <c r="M24">
-        <v>1.034450883084998</v>
+        <v>1.054915574190378</v>
       </c>
       <c r="N24">
-        <v>1.012154702284598</v>
+        <v>1.015830030053679</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003405272189356</v>
+        <v>1.030527327179484</v>
       </c>
       <c r="D25">
-        <v>1.02337703176081</v>
+        <v>1.039820628476757</v>
       </c>
       <c r="E25">
-        <v>1.018914378145699</v>
+        <v>1.048372736204997</v>
       </c>
       <c r="F25">
-        <v>1.026876155561317</v>
+        <v>1.052952666137451</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044278113014901</v>
+        <v>1.036695990598712</v>
       </c>
       <c r="J25">
-        <v>1.027818576296527</v>
+        <v>1.03615206422587</v>
       </c>
       <c r="K25">
-        <v>1.035622973101105</v>
+        <v>1.042860575447767</v>
       </c>
       <c r="L25">
-        <v>1.03122600055728</v>
+        <v>1.051386270195105</v>
       </c>
       <c r="M25">
-        <v>1.039071103296462</v>
+        <v>1.055952247532487</v>
       </c>
       <c r="N25">
-        <v>1.013197557808822</v>
+        <v>1.016048340081608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031539701158009</v>
+        <v>1.008285929175086</v>
       </c>
       <c r="D2">
-        <v>1.040615143088023</v>
+        <v>1.027003915748183</v>
       </c>
       <c r="E2">
-        <v>1.04951739431286</v>
+        <v>1.023830159545407</v>
       </c>
       <c r="F2">
-        <v>1.054037019861213</v>
+        <v>1.031610729141689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036889344208608</v>
+        <v>1.045497967712379</v>
       </c>
       <c r="J2">
-        <v>1.036674867731149</v>
+        <v>1.030221602766076</v>
       </c>
       <c r="K2">
-        <v>1.043396989555646</v>
+        <v>1.038099437847446</v>
       </c>
       <c r="L2">
-        <v>1.052274231972689</v>
+        <v>1.034967192641526</v>
       </c>
       <c r="M2">
-        <v>1.056781335913599</v>
+        <v>1.042646565110952</v>
       </c>
       <c r="N2">
-        <v>1.016222365518382</v>
+        <v>1.014000223965795</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032276224986706</v>
+        <v>1.011742978631219</v>
       </c>
       <c r="D3">
-        <v>1.041193382845385</v>
+        <v>1.029580227898602</v>
       </c>
       <c r="E3">
-        <v>1.050351816297958</v>
+        <v>1.027330422132635</v>
       </c>
       <c r="F3">
-        <v>1.054827055175178</v>
+        <v>1.034978587165601</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037027875723292</v>
+        <v>1.046345289016261</v>
       </c>
       <c r="J3">
-        <v>1.037054393523527</v>
+        <v>1.031918557917102</v>
       </c>
       <c r="K3">
-        <v>1.043786299837397</v>
+        <v>1.039848112654497</v>
       </c>
       <c r="L3">
-        <v>1.052920858718145</v>
+        <v>1.037625151395099</v>
       </c>
       <c r="M3">
-        <v>1.057384594018029</v>
+        <v>1.045182648359718</v>
       </c>
       <c r="N3">
-        <v>1.016348658099686</v>
+        <v>1.014566968416069</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032753464619126</v>
+        <v>1.013941562373357</v>
       </c>
       <c r="D4">
-        <v>1.041568156206712</v>
+        <v>1.031221853638233</v>
       </c>
       <c r="E4">
-        <v>1.050893256486715</v>
+        <v>1.02956488453652</v>
       </c>
       <c r="F4">
-        <v>1.055339496222175</v>
+        <v>1.037126924158859</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037116649484956</v>
+        <v>1.046876232635434</v>
       </c>
       <c r="J4">
-        <v>1.037299929080495</v>
+        <v>1.032995242041599</v>
       </c>
       <c r="K4">
-        <v>1.044038120685944</v>
+        <v>1.040957514034387</v>
       </c>
       <c r="L4">
-        <v>1.053340132074985</v>
+        <v>1.039319116061337</v>
       </c>
       <c r="M4">
-        <v>1.057775517428688</v>
+        <v>1.046796994356437</v>
       </c>
       <c r="N4">
-        <v>1.016430344813956</v>
+        <v>1.014926511681001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032954252080042</v>
+        <v>1.014856914917345</v>
       </c>
       <c r="D5">
-        <v>1.041725855881217</v>
+        <v>1.031906050578615</v>
       </c>
       <c r="E5">
-        <v>1.051121238082271</v>
+        <v>1.030497177167096</v>
       </c>
       <c r="F5">
-        <v>1.055555220002444</v>
+        <v>1.038022892287166</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037153762062105</v>
+        <v>1.047095354240088</v>
       </c>
       <c r="J5">
-        <v>1.037403140642303</v>
+        <v>1.033442877167354</v>
       </c>
       <c r="K5">
-        <v>1.044143963499998</v>
+        <v>1.041418723251928</v>
       </c>
       <c r="L5">
-        <v>1.053516599303413</v>
+        <v>1.040025217540918</v>
       </c>
       <c r="M5">
-        <v>1.057939997506415</v>
+        <v>1.047469436533678</v>
       </c>
       <c r="N5">
-        <v>1.01646467754376</v>
+        <v>1.015075980970283</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032987974264524</v>
+        <v>1.015010089976866</v>
       </c>
       <c r="D6">
-        <v>1.041752342794231</v>
+        <v>1.032020585851019</v>
       </c>
       <c r="E6">
-        <v>1.051159538251231</v>
+        <v>1.030653304336612</v>
       </c>
       <c r="F6">
-        <v>1.055591458125544</v>
+        <v>1.038172913259563</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037159981213674</v>
+        <v>1.047131907800718</v>
       </c>
       <c r="J6">
-        <v>1.03742046960074</v>
+        <v>1.033517746839875</v>
       </c>
       <c r="K6">
-        <v>1.044161733604676</v>
+        <v>1.041495861478066</v>
       </c>
       <c r="L6">
-        <v>1.053546240879403</v>
+        <v>1.040143425432333</v>
       </c>
       <c r="M6">
-        <v>1.057967622350726</v>
+        <v>1.047581981695683</v>
       </c>
       <c r="N6">
-        <v>1.016470441656341</v>
+        <v>1.015100979862287</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032756146940803</v>
+        <v>1.013953828129323</v>
       </c>
       <c r="D7">
-        <v>1.041570262830353</v>
+        <v>1.031231019074419</v>
       </c>
       <c r="E7">
-        <v>1.050896301375567</v>
+        <v>1.029577369400793</v>
       </c>
       <c r="F7">
-        <v>1.055342377583127</v>
+        <v>1.037138924126857</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037117146202898</v>
+        <v>1.046879176527981</v>
       </c>
       <c r="J7">
-        <v>1.037301308245581</v>
+        <v>1.033001242877875</v>
       </c>
       <c r="K7">
-        <v>1.044039535053618</v>
+        <v>1.040963696957729</v>
       </c>
       <c r="L7">
-        <v>1.053342489236626</v>
+        <v>1.039328574550451</v>
       </c>
       <c r="M7">
-        <v>1.057777714687898</v>
+        <v>1.046806003833791</v>
       </c>
       <c r="N7">
-        <v>1.016430803603015</v>
+        <v>1.014928515462172</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03178847511018</v>
+        <v>1.009462351847357</v>
       </c>
       <c r="D8">
-        <v>1.040810433713285</v>
+        <v>1.027879943878872</v>
       </c>
       <c r="E8">
-        <v>1.04979907647591</v>
+        <v>1.025019523109906</v>
       </c>
       <c r="F8">
-        <v>1.054303758888585</v>
+        <v>1.032755433528319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0369363403249</v>
+        <v>1.045787950168044</v>
       </c>
       <c r="J8">
-        <v>1.03680313837947</v>
+        <v>1.030799587256507</v>
       </c>
       <c r="K8">
-        <v>1.043528576373884</v>
+        <v>1.03869505567169</v>
       </c>
       <c r="L8">
-        <v>1.052492582815253</v>
+        <v>1.035870927125797</v>
       </c>
       <c r="M8">
-        <v>1.056985089659043</v>
+        <v>1.043509264073552</v>
       </c>
       <c r="N8">
-        <v>1.016265053251999</v>
+        <v>1.014193266225696</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030088451109291</v>
+        <v>1.001242250206478</v>
       </c>
       <c r="D9">
-        <v>1.03947630259239</v>
+        <v>1.021773537261712</v>
       </c>
       <c r="E9">
-        <v>1.0478773123793</v>
+        <v>1.016744952750317</v>
       </c>
       <c r="F9">
-        <v>1.052483138266661</v>
+        <v>1.024785084831432</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036611142012435</v>
+        <v>1.043729441611044</v>
       </c>
       <c r="J9">
-        <v>1.035925027096857</v>
+        <v>1.026751217551594</v>
       </c>
       <c r="K9">
-        <v>1.042627581770083</v>
+        <v>1.034522962260861</v>
       </c>
       <c r="L9">
-        <v>1.051001625490694</v>
+        <v>1.029572073516682</v>
       </c>
       <c r="M9">
-        <v>1.055592867128214</v>
+        <v>1.037488444429784</v>
       </c>
       <c r="N9">
-        <v>1.015972747196394</v>
+        <v>1.012841006549171</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028958673098743</v>
+        <v>0.9955395336181433</v>
       </c>
       <c r="D10">
-        <v>1.038590214852859</v>
+        <v>1.017557438675296</v>
       </c>
       <c r="E10">
-        <v>1.046604123254159</v>
+        <v>1.011050703914407</v>
       </c>
       <c r="F10">
-        <v>1.051275948597394</v>
+        <v>1.019292253883864</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036389953015349</v>
+        <v>1.042261656206549</v>
       </c>
       <c r="J10">
-        <v>1.035339513689774</v>
+        <v>1.023931247424652</v>
       </c>
       <c r="K10">
-        <v>1.04202658435037</v>
+        <v>1.031616762635696</v>
       </c>
       <c r="L10">
-        <v>1.050012257516457</v>
+        <v>1.025223260409731</v>
       </c>
       <c r="M10">
-        <v>1.054667841394622</v>
+        <v>1.033321703522362</v>
       </c>
       <c r="N10">
-        <v>1.015777747347153</v>
+        <v>1.01189894839547</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028470338658366</v>
+        <v>0.9930133135600113</v>
       </c>
       <c r="D11">
-        <v>1.038207344243892</v>
+        <v>1.015695093297234</v>
       </c>
       <c r="E11">
-        <v>1.04605474025041</v>
+        <v>1.008539446236034</v>
       </c>
       <c r="F11">
-        <v>1.050754805296731</v>
+        <v>1.016868027809346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036293143816779</v>
+        <v>1.041602440724929</v>
       </c>
       <c r="J11">
-        <v>1.035085971177722</v>
+        <v>1.022679663287454</v>
       </c>
       <c r="K11">
-        <v>1.041766284049365</v>
+        <v>1.030326971104811</v>
       </c>
       <c r="L11">
-        <v>1.049584965107528</v>
+        <v>1.023302098124956</v>
       </c>
       <c r="M11">
-        <v>1.054268058569425</v>
+        <v>1.031478697731361</v>
       </c>
       <c r="N11">
-        <v>1.015693285426056</v>
+        <v>1.011480826702486</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028289081762494</v>
+        <v>0.9920660460288416</v>
       </c>
       <c r="D12">
-        <v>1.038065252940582</v>
+        <v>1.014997607867549</v>
       </c>
       <c r="E12">
-        <v>1.045850965097159</v>
+        <v>1.007599495724697</v>
       </c>
       <c r="F12">
-        <v>1.050561468790885</v>
+        <v>1.015960390168183</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036257030135143</v>
+        <v>1.04135393353983</v>
       </c>
       <c r="J12">
-        <v>1.034991793822802</v>
+        <v>1.022210022410583</v>
       </c>
       <c r="K12">
-        <v>1.041669588665438</v>
+        <v>1.029843009561708</v>
       </c>
       <c r="L12">
-        <v>1.049426418387104</v>
+        <v>1.022582535421675</v>
       </c>
       <c r="M12">
-        <v>1.054119677387066</v>
+        <v>1.030788071835254</v>
       </c>
       <c r="N12">
-        <v>1.015661909116881</v>
+        <v>1.011323932081166</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028327955964581</v>
+        <v>0.9922696477546199</v>
       </c>
       <c r="D13">
-        <v>1.038095726369048</v>
+        <v>1.015147483469545</v>
       </c>
       <c r="E13">
-        <v>1.045894662392912</v>
+        <v>1.007801447263417</v>
       </c>
       <c r="F13">
-        <v>1.05060292926145</v>
+        <v>1.016155410928399</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036264783618938</v>
+        <v>1.041407405647911</v>
       </c>
       <c r="J13">
-        <v>1.035011995180883</v>
+        <v>1.022310979465872</v>
       </c>
       <c r="K13">
-        <v>1.041690330504611</v>
+        <v>1.029947044241555</v>
       </c>
       <c r="L13">
-        <v>1.049460419532498</v>
+        <v>1.022737157535509</v>
       </c>
       <c r="M13">
-        <v>1.054151500377041</v>
+        <v>1.030936491019594</v>
       </c>
       <c r="N13">
-        <v>1.015668639587618</v>
+        <v>1.011357659135993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028455353197108</v>
+        <v>0.9929351962257718</v>
       </c>
       <c r="D14">
-        <v>1.038195596393543</v>
+        <v>1.015637557002512</v>
       </c>
       <c r="E14">
-        <v>1.04603789020055</v>
+        <v>1.008461897463612</v>
       </c>
       <c r="F14">
-        <v>1.050738819145643</v>
+        <v>1.016793150247937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036290161794687</v>
+        <v>1.04158197394961</v>
       </c>
       <c r="J14">
-        <v>1.035078186448203</v>
+        <v>1.022640940424075</v>
       </c>
       <c r="K14">
-        <v>1.041758291339098</v>
+        <v>1.030287067105239</v>
       </c>
       <c r="L14">
-        <v>1.049571856133792</v>
+        <v>1.023242741770814</v>
       </c>
       <c r="M14">
-        <v>1.054255790958288</v>
+        <v>1.031421735170093</v>
       </c>
       <c r="N14">
-        <v>1.015690691917011</v>
+        <v>1.01146789040342</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028533864422585</v>
+        <v>0.9933440697090964</v>
       </c>
       <c r="D15">
-        <v>1.038257146088204</v>
+        <v>1.015938742188217</v>
       </c>
       <c r="E15">
-        <v>1.046126176095819</v>
+        <v>1.008867864798486</v>
       </c>
       <c r="F15">
-        <v>1.050822577168447</v>
+        <v>1.017185123133135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036305777684609</v>
+        <v>1.041689045403791</v>
       </c>
       <c r="J15">
-        <v>1.035118969062319</v>
+        <v>1.022843606284356</v>
       </c>
       <c r="K15">
-        <v>1.041800163199873</v>
+        <v>1.030495915438558</v>
       </c>
       <c r="L15">
-        <v>1.04964053831283</v>
+        <v>1.023553452292336</v>
       </c>
       <c r="M15">
-        <v>1.054320063248907</v>
+        <v>1.031719901297548</v>
       </c>
       <c r="N15">
-        <v>1.015704278649676</v>
+        <v>1.011535595799714</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028991100683898</v>
+        <v>0.9957059606540931</v>
       </c>
       <c r="D16">
-        <v>1.038615641977566</v>
+        <v>1.017680244782803</v>
       </c>
       <c r="E16">
-        <v>1.046640624561265</v>
+        <v>1.01121638115073</v>
       </c>
       <c r="F16">
-        <v>1.051310568598365</v>
+        <v>1.019452152350075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036396356224688</v>
+        <v>1.042304900100594</v>
       </c>
       <c r="J16">
-        <v>1.0353563403456</v>
+        <v>1.024013654335982</v>
       </c>
       <c r="K16">
-        <v>1.042043858387449</v>
+        <v>1.031701687083638</v>
       </c>
       <c r="L16">
-        <v>1.05004063906219</v>
+        <v>1.025349939260328</v>
       </c>
       <c r="M16">
-        <v>1.054694389823408</v>
+        <v>1.033443181730565</v>
       </c>
       <c r="N16">
-        <v>1.015783352305364</v>
+        <v>1.011926478340778</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.029278146426498</v>
+        <v>0.9971720236911618</v>
       </c>
       <c r="D17">
-        <v>1.038840735586996</v>
+        <v>1.018762662450862</v>
       </c>
       <c r="E17">
-        <v>1.046963839129033</v>
+        <v>1.012677121453968</v>
       </c>
       <c r="F17">
-        <v>1.051617096755615</v>
+        <v>1.020861737781099</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036452897739311</v>
+        <v>1.042684813442429</v>
       </c>
       <c r="J17">
-        <v>1.035505234980642</v>
+        <v>1.024739312315947</v>
       </c>
       <c r="K17">
-        <v>1.042196705687958</v>
+        <v>1.032449522017281</v>
       </c>
       <c r="L17">
-        <v>1.050291910313422</v>
+        <v>1.026466466841851</v>
       </c>
       <c r="M17">
-        <v>1.05492939962934</v>
+        <v>1.034513612077467</v>
       </c>
       <c r="N17">
-        <v>1.015832946571988</v>
+        <v>1.012168900419328</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029445658859049</v>
+        <v>0.9980216886504087</v>
       </c>
       <c r="D18">
-        <v>1.03897210701838</v>
+        <v>1.019390487301341</v>
       </c>
       <c r="E18">
-        <v>1.047152549460981</v>
+        <v>1.013524767198305</v>
       </c>
       <c r="F18">
-        <v>1.051796041525309</v>
+        <v>1.021679527121127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036485777737819</v>
+        <v>1.042904134548524</v>
       </c>
       <c r="J18">
-        <v>1.035592081518768</v>
+        <v>1.025159643104316</v>
       </c>
       <c r="K18">
-        <v>1.042285852618417</v>
+        <v>1.032882704219414</v>
       </c>
       <c r="L18">
-        <v>1.050438579600119</v>
+        <v>1.027114059013277</v>
       </c>
       <c r="M18">
-        <v>1.055066550021248</v>
+        <v>1.035134250124042</v>
       </c>
       <c r="N18">
-        <v>1.015861871557515</v>
+        <v>1.012309320238556</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029502790372565</v>
+        <v>0.9983104863586165</v>
       </c>
       <c r="D19">
-        <v>1.03901691447377</v>
+        <v>1.019603966529612</v>
       </c>
       <c r="E19">
-        <v>1.047216926074463</v>
+        <v>1.013813058697436</v>
       </c>
       <c r="F19">
-        <v>1.051857082793893</v>
+        <v>1.021957634810853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036496972032295</v>
+        <v>1.042978534037923</v>
       </c>
       <c r="J19">
-        <v>1.035621693702839</v>
+        <v>1.025302472288232</v>
       </c>
       <c r="K19">
-        <v>1.04231624830374</v>
+        <v>1.033029901096862</v>
       </c>
       <c r="L19">
-        <v>1.050488608131583</v>
+        <v>1.027334257407327</v>
       </c>
       <c r="M19">
-        <v>1.05511332711106</v>
+        <v>1.035345246345855</v>
       </c>
       <c r="N19">
-        <v>1.01587173378985</v>
+        <v>1.01235703494452</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029247340482796</v>
+        <v>0.997015296846707</v>
       </c>
       <c r="D20">
-        <v>1.03881657707637</v>
+        <v>1.018646895974875</v>
       </c>
       <c r="E20">
-        <v>1.046929142139706</v>
+        <v>1.012520852979767</v>
       </c>
       <c r="F20">
-        <v>1.051584193438387</v>
+        <v>1.02071095957544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036446841678025</v>
+        <v>1.042644288390499</v>
       </c>
       <c r="J20">
-        <v>1.035489260108264</v>
+        <v>1.024661760623171</v>
       </c>
       <c r="K20">
-        <v>1.042180307261986</v>
+        <v>1.032369599625774</v>
       </c>
       <c r="L20">
-        <v>1.050264940203403</v>
+        <v>1.026347054169104</v>
       </c>
       <c r="M20">
-        <v>1.054904177721777</v>
+        <v>1.034399152008431</v>
       </c>
       <c r="N20">
-        <v>1.015827625832883</v>
+        <v>1.012142992652394</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028417834220238</v>
+        <v>0.9927394579889632</v>
       </c>
       <c r="D21">
-        <v>1.03816618372448</v>
+        <v>1.015493402378</v>
       </c>
       <c r="E21">
-        <v>1.045995705153239</v>
+        <v>1.008267611452307</v>
       </c>
       <c r="F21">
-        <v>1.050698796337054</v>
+        <v>1.016605552318525</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036282692811614</v>
+        <v>1.041530669319122</v>
       </c>
       <c r="J21">
-        <v>1.035058694769503</v>
+        <v>1.022543907522212</v>
       </c>
       <c r="K21">
-        <v>1.041738278783893</v>
+        <v>1.030187074760577</v>
       </c>
       <c r="L21">
-        <v>1.049539036160064</v>
+        <v>1.023094026206703</v>
       </c>
       <c r="M21">
-        <v>1.054225076765472</v>
+        <v>1.031279011779065</v>
       </c>
       <c r="N21">
-        <v>1.015684198145481</v>
+        <v>1.011435474248836</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027897056915362</v>
+        <v>0.9899992815198447</v>
       </c>
       <c r="D22">
-        <v>1.037757973381043</v>
+        <v>1.013477428786783</v>
       </c>
       <c r="E22">
-        <v>1.045410496138455</v>
+        <v>1.005551855843478</v>
       </c>
       <c r="F22">
-        <v>1.050143497794272</v>
+        <v>1.013982668752421</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036178592762639</v>
+        <v>1.040809354009096</v>
       </c>
       <c r="J22">
-        <v>1.034787979727302</v>
+        <v>1.021184779412171</v>
       </c>
       <c r="K22">
-        <v>1.04146031083541</v>
+        <v>1.028786541200279</v>
       </c>
       <c r="L22">
-        <v>1.049083608481197</v>
+        <v>1.021014125905012</v>
       </c>
       <c r="M22">
-        <v>1.053798770867744</v>
+        <v>1.029282123880773</v>
       </c>
       <c r="N22">
-        <v>1.015594000078662</v>
+        <v>1.010981427475835</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028173057516819</v>
+        <v>0.9914569375370904</v>
       </c>
       <c r="D23">
-        <v>1.03797430470112</v>
+        <v>1.014549357647941</v>
       </c>
       <c r="E23">
-        <v>1.045720566525004</v>
+        <v>1.006995575863338</v>
       </c>
       <c r="F23">
-        <v>1.050437739945609</v>
+        <v>1.015377158348495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036233862577888</v>
+        <v>1.041193772387285</v>
       </c>
       <c r="J23">
-        <v>1.034931490594833</v>
+        <v>1.021907946564859</v>
       </c>
       <c r="K23">
-        <v>1.041607670894565</v>
+        <v>1.029531727975259</v>
       </c>
       <c r="L23">
-        <v>1.049324946076896</v>
+        <v>1.022120080494953</v>
       </c>
       <c r="M23">
-        <v>1.054024699386208</v>
+        <v>1.030344120239577</v>
       </c>
       <c r="N23">
-        <v>1.015641817461363</v>
+        <v>1.011223016755957</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029261260104976</v>
+        <v>0.9970861318232461</v>
       </c>
       <c r="D24">
-        <v>1.038827493026275</v>
+        <v>1.018699216759964</v>
       </c>
       <c r="E24">
-        <v>1.046944819645152</v>
+        <v>1.012591477488938</v>
       </c>
       <c r="F24">
-        <v>1.051599060561539</v>
+        <v>1.02077910332709</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036449578459629</v>
+        <v>1.04266260694386</v>
       </c>
       <c r="J24">
-        <v>1.035496478469297</v>
+        <v>1.024696811948135</v>
       </c>
       <c r="K24">
-        <v>1.042187717024522</v>
+        <v>1.032405722427294</v>
       </c>
       <c r="L24">
-        <v>1.050277126504795</v>
+        <v>1.026401022908367</v>
       </c>
       <c r="M24">
-        <v>1.054915574190378</v>
+        <v>1.034450883084999</v>
       </c>
       <c r="N24">
-        <v>1.015830030053679</v>
+        <v>1.012154702284598</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030527327179484</v>
+        <v>1.003405272189356</v>
       </c>
       <c r="D25">
-        <v>1.039820628476757</v>
+        <v>1.023377031760809</v>
       </c>
       <c r="E25">
-        <v>1.048372736204997</v>
+        <v>1.018914378145699</v>
       </c>
       <c r="F25">
-        <v>1.052952666137451</v>
+        <v>1.026876155561317</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036695990598712</v>
+        <v>1.044278113014901</v>
       </c>
       <c r="J25">
-        <v>1.03615206422587</v>
+        <v>1.027818576296527</v>
       </c>
       <c r="K25">
-        <v>1.042860575447767</v>
+        <v>1.035622973101105</v>
       </c>
       <c r="L25">
-        <v>1.051386270195105</v>
+        <v>1.03122600055728</v>
       </c>
       <c r="M25">
-        <v>1.055952247532487</v>
+        <v>1.039071103296461</v>
       </c>
       <c r="N25">
-        <v>1.016048340081608</v>
+        <v>1.013197557808822</v>
       </c>
     </row>
   </sheetData>
